--- a/state_results/Rivers/WhanganuiatusTaumarunuiSTP_e44476cae4.xlsx
+++ b/state_results/Rivers/WhanganuiatusTaumarunuiSTP_e44476cae4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53017787681005</v>
+        <v>1.56180560173313</v>
       </c>
       <c r="H2" t="n">
-        <v>7.063600907415</v>
+        <v>7.80493390155335</v>
       </c>
       <c r="I2" t="n">
-        <v>4.08745</v>
+        <v>4.07543</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,7 +584,7 @@
         <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1</v>
+        <v>2.119</v>
       </c>
       <c r="N2" t="n">
         <v>2.406</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1925</v>
+        <v>0.19225</v>
       </c>
       <c r="G13" t="n">
         <v>0.291034482758621</v>
@@ -1484,13 +1484,13 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
       <c r="M13" t="n">
-        <v>0.49964</v>
+        <v>0.49936</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6883</v>
+        <v>0.68836</v>
       </c>
       <c r="O13" t="n">
         <v>1795137.028</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1925</v>
+        <v>0.19225</v>
       </c>
       <c r="G14" t="n">
         <v>0.291034482758621</v>
@@ -1561,13 +1561,13 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
       <c r="M14" t="n">
-        <v>0.49964</v>
+        <v>0.49936</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6883</v>
+        <v>0.68836</v>
       </c>
       <c r="O14" t="n">
         <v>1795137.028</v>
@@ -1939,13 +1939,13 @@
         <v>1.55</v>
       </c>
       <c r="G19" t="n">
-        <v>1.79335565233709</v>
+        <v>1.82426456533011</v>
       </c>
       <c r="H19" t="n">
-        <v>7.063600907415</v>
+        <v>7.80493390155335</v>
       </c>
       <c r="I19" t="n">
-        <v>6.21267</v>
+        <v>6.20237</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2842,7 +2842,7 @@
         <v>0.197</v>
       </c>
       <c r="G30" t="n">
-        <v>0.296033898305085</v>
+        <v>0.296042372881356</v>
       </c>
       <c r="H30" t="n">
         <v>2.315</v>
@@ -2856,10 +2856,10 @@
         <v>0.052</v>
       </c>
       <c r="M30" t="n">
-        <v>0.58856</v>
+        <v>0.5884200000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6879</v>
+        <v>0.68799</v>
       </c>
       <c r="O30" t="n">
         <v>1795137.028</v>
@@ -2919,7 +2919,7 @@
         <v>0.197</v>
       </c>
       <c r="G31" t="n">
-        <v>0.296033898305085</v>
+        <v>0.296042372881356</v>
       </c>
       <c r="H31" t="n">
         <v>2.315</v>
@@ -2933,10 +2933,10 @@
         <v>0.052</v>
       </c>
       <c r="M31" t="n">
-        <v>0.58856</v>
+        <v>0.5884200000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6879</v>
+        <v>0.68799</v>
       </c>
       <c r="O31" t="n">
         <v>1795137.028</v>
@@ -3308,10 +3308,10 @@
         <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.73733640552166</v>
+        <v>1.75049936674622</v>
       </c>
       <c r="H36" t="n">
-        <v>7.03557622842682</v>
+        <v>7.00123057517996</v>
       </c>
       <c r="I36" t="n">
         <v>5.214</v>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.215</v>
+        <v>0.2146</v>
       </c>
       <c r="G47" t="n">
-        <v>0.318135593220339</v>
+        <v>0.31814406779661</v>
       </c>
       <c r="H47" t="n">
         <v>2.315</v>
@@ -4225,10 +4225,10 @@
         <v>0.082</v>
       </c>
       <c r="M47" t="n">
-        <v>0.60393</v>
+        <v>0.60379</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6879</v>
+        <v>0.68799</v>
       </c>
       <c r="O47" t="n">
         <v>1795137.028</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.215</v>
+        <v>0.2146</v>
       </c>
       <c r="G48" t="n">
-        <v>0.318135593220339</v>
+        <v>0.31814406779661</v>
       </c>
       <c r="H48" t="n">
         <v>2.315</v>
@@ -4302,10 +4302,10 @@
         <v>0.082</v>
       </c>
       <c r="M48" t="n">
-        <v>0.60393</v>
+        <v>0.60379</v>
       </c>
       <c r="N48" t="n">
-        <v>0.6879</v>
+        <v>0.68799</v>
       </c>
       <c r="O48" t="n">
         <v>1795137.028</v>
@@ -4677,10 +4677,10 @@
         <v>1.5</v>
       </c>
       <c r="G53" t="n">
-        <v>1.68244727567682</v>
+        <v>1.69457784778573</v>
       </c>
       <c r="H53" t="n">
-        <v>7.03557622842682</v>
+        <v>7.00123057517996</v>
       </c>
       <c r="I53" t="n">
         <v>5.0855</v>
@@ -4691,7 +4691,7 @@
         <v>1.65</v>
       </c>
       <c r="M53" t="n">
-        <v>2.283</v>
+        <v>2.29345</v>
       </c>
       <c r="N53" t="n">
         <v>3.8182</v>
@@ -5580,13 +5580,13 @@
         <v>0.226</v>
       </c>
       <c r="G64" t="n">
-        <v>0.261308310138324</v>
+        <v>0.261315083661597</v>
       </c>
       <c r="H64" t="n">
         <v>0.872</v>
       </c>
       <c r="I64" t="n">
-        <v>0.619</v>
+        <v>0.61895</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5594,10 +5594,10 @@
         <v>0.075</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5083</v>
+        <v>0.50837</v>
       </c>
       <c r="N64" t="n">
-        <v>0.6147</v>
+        <v>0.61461</v>
       </c>
       <c r="O64" t="n">
         <v>1795137.028</v>
@@ -5657,13 +5657,13 @@
         <v>0.226</v>
       </c>
       <c r="G65" t="n">
-        <v>0.261308310138324</v>
+        <v>0.261315083661597</v>
       </c>
       <c r="H65" t="n">
         <v>0.872</v>
       </c>
       <c r="I65" t="n">
-        <v>0.619</v>
+        <v>0.61895</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5671,10 +5671,10 @@
         <v>0.075</v>
       </c>
       <c r="M65" t="n">
-        <v>0.5083</v>
+        <v>0.50837</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6147</v>
+        <v>0.61461</v>
       </c>
       <c r="O65" t="n">
         <v>1795137.028</v>
@@ -6046,10 +6046,10 @@
         <v>1.45</v>
       </c>
       <c r="G70" t="n">
-        <v>1.63403590355777</v>
+        <v>1.64593319543381</v>
       </c>
       <c r="H70" t="n">
-        <v>7.03557622842682</v>
+        <v>7.00123057517996</v>
       </c>
       <c r="I70" t="n">
         <v>5.071</v>
@@ -6060,7 +6060,7 @@
         <v>1.75</v>
       </c>
       <c r="M70" t="n">
-        <v>2.232</v>
+        <v>2.2869</v>
       </c>
       <c r="N70" t="n">
         <v>3.6814</v>
@@ -6946,13 +6946,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.237</v>
+        <v>0.2374</v>
       </c>
       <c r="G81" t="n">
-        <v>0.246398281496601</v>
+        <v>0.246403474910099</v>
       </c>
       <c r="H81" t="n">
-        <v>0.618</v>
+        <v>0.6176</v>
       </c>
       <c r="I81" t="n">
         <v>0.5815</v>
@@ -6960,7 +6960,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.06825000000000001</v>
       </c>
       <c r="M81" t="n">
         <v>0.4338</v>
@@ -7023,13 +7023,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.237</v>
+        <v>0.2374</v>
       </c>
       <c r="G82" t="n">
-        <v>0.246398281496601</v>
+        <v>0.246403474910099</v>
       </c>
       <c r="H82" t="n">
-        <v>0.618</v>
+        <v>0.6176</v>
       </c>
       <c r="I82" t="n">
         <v>0.5815</v>
@@ -7037,7 +7037,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.06825000000000001</v>
       </c>
       <c r="M82" t="n">
         <v>0.4338</v>
@@ -7385,2744 +7385,6 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Visual Clarity (Sediment class 1)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.50724042643526</v>
-      </c>
-      <c r="H87" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4.8825</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.985</v>
-      </c>
-      <c r="N87" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P87" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.0216603348284751</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.0573</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P88" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.0216603348284751</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.0573</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P89" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>180</v>
-      </c>
-      <c r="G90" t="n">
-        <v>547.695652173913</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3920</v>
-      </c>
-      <c r="J90" t="n">
-        <v>15.2173913043478</v>
-      </c>
-      <c r="K90" t="n">
-        <v>34.7826086956522</v>
-      </c>
-      <c r="L90" t="n">
-        <v>320</v>
-      </c>
-      <c r="M90" t="n">
-        <v>420.8</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2183.2</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P90" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>180</v>
-      </c>
-      <c r="G91" t="n">
-        <v>547.695652173913</v>
-      </c>
-      <c r="H91" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3920</v>
-      </c>
-      <c r="J91" t="n">
-        <v>15.2173913043478</v>
-      </c>
-      <c r="K91" t="n">
-        <v>34.7826086956522</v>
-      </c>
-      <c r="L91" t="n">
-        <v>320</v>
-      </c>
-      <c r="M91" t="n">
-        <v>420.8</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2183.2</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P91" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>180</v>
-      </c>
-      <c r="G92" t="n">
-        <v>547.695652173913</v>
-      </c>
-      <c r="H92" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3920</v>
-      </c>
-      <c r="J92" t="n">
-        <v>15.2173913043478</v>
-      </c>
-      <c r="K92" t="n">
-        <v>34.7826086956522</v>
-      </c>
-      <c r="L92" t="n">
-        <v>320</v>
-      </c>
-      <c r="M92" t="n">
-        <v>420.8</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2183.2</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P92" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>180</v>
-      </c>
-      <c r="G93" t="n">
-        <v>547.695652173913</v>
-      </c>
-      <c r="H93" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3920</v>
-      </c>
-      <c r="J93" t="n">
-        <v>15.2173913043478</v>
-      </c>
-      <c r="K93" t="n">
-        <v>34.7826086956522</v>
-      </c>
-      <c r="L93" t="n">
-        <v>320</v>
-      </c>
-      <c r="M93" t="n">
-        <v>420.8</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2183.2</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P93" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>0.00242</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.00404432266257</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.0203576648089213</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.01661</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>0.00284</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.00543</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.01372</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P94" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>0.00242</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.00404432266257</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.0203576648089213</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.01661</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>0.00284</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.00543</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.01372</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P95" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.245697707824054</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.5834</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.45522</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.54398</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P96" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.245697707824054</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.5834</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.45522</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.54398</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P97" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.257414864006371</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.46775</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.5572</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P98" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.257414864006371</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.46775</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.5572</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P99" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.403340425531915</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.7715</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.59091</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.6748</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P100" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.403340425531915</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.7715</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.59091</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.6748</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P101" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.0352127659574468</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.1174</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.05712</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P102" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.0352127659574468</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.1174</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.05712</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P103" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Visual Clarity (Sediment class 1)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.24045197684534</v>
-      </c>
-      <c r="H104" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4.1825</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N104" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P104" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.0212010210553809</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P105" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.0212010210553809</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="O106" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P106" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>230</v>
-      </c>
-      <c r="G107" t="n">
-        <v>675.742857142857</v>
-      </c>
-      <c r="H107" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4525</v>
-      </c>
-      <c r="J107" t="n">
-        <v>20</v>
-      </c>
-      <c r="K107" t="n">
-        <v>42.8571428571429</v>
-      </c>
-      <c r="L107" t="n">
-        <v>345</v>
-      </c>
-      <c r="M107" t="n">
-        <v>690.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>3340</v>
-      </c>
-      <c r="O107" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P107" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>230</v>
-      </c>
-      <c r="G108" t="n">
-        <v>675.742857142857</v>
-      </c>
-      <c r="H108" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I108" t="n">
-        <v>4525</v>
-      </c>
-      <c r="J108" t="n">
-        <v>20</v>
-      </c>
-      <c r="K108" t="n">
-        <v>42.8571428571429</v>
-      </c>
-      <c r="L108" t="n">
-        <v>345</v>
-      </c>
-      <c r="M108" t="n">
-        <v>690.5</v>
-      </c>
-      <c r="N108" t="n">
-        <v>3340</v>
-      </c>
-      <c r="O108" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P108" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>230</v>
-      </c>
-      <c r="G109" t="n">
-        <v>675.742857142857</v>
-      </c>
-      <c r="H109" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I109" t="n">
-        <v>4525</v>
-      </c>
-      <c r="J109" t="n">
-        <v>20</v>
-      </c>
-      <c r="K109" t="n">
-        <v>42.8571428571429</v>
-      </c>
-      <c r="L109" t="n">
-        <v>345</v>
-      </c>
-      <c r="M109" t="n">
-        <v>690.5</v>
-      </c>
-      <c r="N109" t="n">
-        <v>3340</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P109" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>230</v>
-      </c>
-      <c r="G110" t="n">
-        <v>675.742857142857</v>
-      </c>
-      <c r="H110" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4525</v>
-      </c>
-      <c r="J110" t="n">
-        <v>20</v>
-      </c>
-      <c r="K110" t="n">
-        <v>42.8571428571429</v>
-      </c>
-      <c r="L110" t="n">
-        <v>345</v>
-      </c>
-      <c r="M110" t="n">
-        <v>690.5</v>
-      </c>
-      <c r="N110" t="n">
-        <v>3340</v>
-      </c>
-      <c r="O110" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P110" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>0.00301</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.003551581919096</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.0133005936409573</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.00749</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>0.00304</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.00524</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.00597</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P111" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>0.00301</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.003551581919096</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.0133005936409573</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.00749</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>0.00304</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.00524</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.00597</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P112" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.254065089861501</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.54425</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.4561</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.5159</v>
-      </c>
-      <c r="O113" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P113" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.254065089861501</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.54425</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.4561</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.5159</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P114" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.26535710309427</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.5335</v>
-      </c>
-      <c r="O115" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P115" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.26535710309427</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.5575</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.5335</v>
-      </c>
-      <c r="O116" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P116" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.430857142857143</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.7775</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P117" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.430857142857143</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.7775</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="O118" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P118" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0411142857142857</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.0684</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1018</v>
-      </c>
-      <c r="O119" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P119" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Whanganui at u/s Taumarunui STP</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0411142857142857</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.0684</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.1018</v>
-      </c>
-      <c r="O120" t="n">
-        <v>1795137.028</v>
-      </c>
-      <c r="P120" t="n">
-        <v>5692690.541</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>Te Maire</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>Whai_3</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhanganuiatusTaumarunuiSTP_e44476cae4.xlsx
+++ b/state_results/Rivers/WhanganuiatusTaumarunuiSTP_e44476cae4.xlsx
@@ -570,13 +570,13 @@
         <v>1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56180560173313</v>
+        <v>1.58820268873959</v>
       </c>
       <c r="H2" t="n">
-        <v>7.80493390155335</v>
+        <v>8.15274050583192</v>
       </c>
       <c r="I2" t="n">
-        <v>4.07543</v>
+        <v>4.47846</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,7 +584,7 @@
         <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>2.119</v>
+        <v>2.1</v>
       </c>
       <c r="N2" t="n">
         <v>2.406</v>
@@ -1939,13 +1939,13 @@
         <v>1.55</v>
       </c>
       <c r="G19" t="n">
-        <v>1.82426456533011</v>
+        <v>1.85006171854096</v>
       </c>
       <c r="H19" t="n">
-        <v>7.80493390155335</v>
+        <v>8.15274050583192</v>
       </c>
       <c r="I19" t="n">
-        <v>6.20237</v>
+        <v>6.54782</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -3308,10 +3308,10 @@
         <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.75049936674622</v>
+        <v>1.76724975263982</v>
       </c>
       <c r="H36" t="n">
-        <v>7.00123057517996</v>
+        <v>8.15274050583192</v>
       </c>
       <c r="I36" t="n">
         <v>5.214</v>
@@ -4677,10 +4677,10 @@
         <v>1.5</v>
       </c>
       <c r="G53" t="n">
-        <v>1.69457784778573</v>
+        <v>1.71001447792297</v>
       </c>
       <c r="H53" t="n">
-        <v>7.00123057517996</v>
+        <v>8.15274050583192</v>
       </c>
       <c r="I53" t="n">
         <v>5.0855</v>
@@ -4691,7 +4691,7 @@
         <v>1.65</v>
       </c>
       <c r="M53" t="n">
-        <v>2.29345</v>
+        <v>2.283</v>
       </c>
       <c r="N53" t="n">
         <v>3.8182</v>
@@ -6046,10 +6046,10 @@
         <v>1.45</v>
       </c>
       <c r="G70" t="n">
-        <v>1.64593319543381</v>
+        <v>1.66107296729918</v>
       </c>
       <c r="H70" t="n">
-        <v>7.00123057517996</v>
+        <v>8.15274050583192</v>
       </c>
       <c r="I70" t="n">
         <v>5.071</v>
@@ -6060,7 +6060,7 @@
         <v>1.75</v>
       </c>
       <c r="M70" t="n">
-        <v>2.2869</v>
+        <v>2.232</v>
       </c>
       <c r="N70" t="n">
         <v>3.6814</v>
